--- a/DataBase/Datas/Dungeons.xlsx
+++ b/DataBase/Datas/Dungeons.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\Godot\AwesomeRPG\DataBase\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88F428F6-A3F0-41DC-82DA-DD969E2A0B3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB2B1317-A610-4783-A4FB-4144F82C1C1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>##var</t>
   </si>
@@ -36,14 +36,6 @@
     <t>name</t>
   </si>
   <si>
-    <t>type</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>reward</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>##type</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -84,15 +76,27 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>enemys_id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>array,int</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>敌人id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>need_cost</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>reward_type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>门票钱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>reward_value</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>enemy_id</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -459,18 +463,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="4" width="12.25" customWidth="1"/>
+    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -481,40 +491,46 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1"/>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="2"/>
     </row>
-    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="3" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -522,46 +538,55 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="D4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="3"/>
       <c r="B5" s="3">
         <v>6001</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="3">
+        <v>7005</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="F5" s="3">
+        <v>200</v>
+      </c>
+      <c r="G5" s="3">
         <v>100</v>
       </c>
-      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -569,8 +594,9 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -578,6 +604,7 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/DataBase/Datas/Dungeons.xlsx
+++ b/DataBase/Datas/Dungeons.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\Godot\AwesomeRPG\DataBase\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB2B1317-A610-4783-A4FB-4144F82C1C1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDAF6A92-52E0-47A2-BDA8-D4AD38D668C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -463,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -606,6 +606,56 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
     </row>
+    <row r="8" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DataBase/Datas/Dungeons.xlsx
+++ b/DataBase/Datas/Dungeons.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\Godot\AwesomeRPG\DataBase\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\Godot\AwesomeRPG\DataBase\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDAF6A92-52E0-47A2-BDA8-D4AD38D668C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{165D43AE-95C5-4AAA-90C7-5AE635328CD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
   <si>
     <t>##var</t>
   </si>
@@ -97,6 +97,14 @@
   </si>
   <si>
     <t>enemy_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>max_level</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大等级</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -466,7 +474,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -502,7 +510,9 @@
       <c r="G1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="1"/>
+      <c r="H1" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -526,7 +536,9 @@
       <c r="G2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="2"/>
+      <c r="H2" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="3" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
@@ -562,7 +574,9 @@
       <c r="G4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="2"/>
+      <c r="H4" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="5" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="3"/>
@@ -584,7 +598,9 @@
       <c r="G5" s="3">
         <v>100</v>
       </c>
-      <c r="H5" s="3"/>
+      <c r="H5" s="3">
+        <v>20</v>
+      </c>
     </row>
     <row r="6" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="3"/>

--- a/DataBase/Datas/Dungeons.xlsx
+++ b/DataBase/Datas/Dungeons.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\Godot\AwesomeRPG\DataBase\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{165D43AE-95C5-4AAA-90C7-5AE635328CD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3267F77-1E7E-481E-A99F-84CCFB917404}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
   <si>
     <t>##var</t>
   </si>
@@ -64,10 +64,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>金币城</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>奖励类型</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -105,6 +101,42 @@
   </si>
   <si>
     <t>最大等级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>奉献之城</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>天堂阶梯</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>赦罪教堂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>天使之家</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金宝库</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MoneyWhite</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MoneyBlue</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MoneyPurple</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MoneyYellow</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -474,14 +506,14 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.25" customWidth="1"/>
     <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.125" bestFit="1" customWidth="1"/>
@@ -499,19 +531,19 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.35">
@@ -563,19 +595,19 @@
         <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="18" x14ac:dyDescent="0.35">
@@ -584,19 +616,19 @@
         <v>6001</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D5" s="3">
         <v>7005</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F5" s="3">
+        <v>100</v>
+      </c>
+      <c r="G5" s="3">
         <v>200</v>
-      </c>
-      <c r="G5" s="3">
-        <v>100</v>
       </c>
       <c r="H5" s="3">
         <v>20</v>
@@ -604,43 +636,99 @@
     </row>
     <row r="6" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
+      <c r="B6" s="3">
+        <v>6002</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="3">
+        <v>7006</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G6" s="3">
+        <v>10</v>
+      </c>
+      <c r="H6" s="3">
+        <v>20</v>
+      </c>
     </row>
     <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
+      <c r="B7" s="3">
+        <v>6003</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="3">
+        <v>7007</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G7" s="3">
+        <v>10</v>
+      </c>
+      <c r="H7" s="3">
+        <v>20</v>
+      </c>
     </row>
     <row r="8" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
+      <c r="B8" s="3">
+        <v>6004</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="3">
+        <v>7008</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="3">
+        <v>3000</v>
+      </c>
+      <c r="G8" s="3">
+        <v>10</v>
+      </c>
+      <c r="H8" s="3">
+        <v>20</v>
+      </c>
     </row>
     <row r="9" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
+      <c r="B9" s="3">
+        <v>6005</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="3">
+        <v>7009</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="3">
+        <v>5000</v>
+      </c>
+      <c r="G9" s="3">
+        <v>10</v>
+      </c>
+      <c r="H9" s="3">
+        <v>20</v>
+      </c>
     </row>
     <row r="10" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="3"/>

--- a/DataBase/Datas/Dungeons.xlsx
+++ b/DataBase/Datas/Dungeons.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\Godot\AwesomeRPG\DataBase\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3267F77-1E7E-481E-A99F-84CCFB917404}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E06933C6-15B7-4680-B885-166945A09B7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
   <si>
     <t>##var</t>
   </si>
@@ -137,6 +137,14 @@
   </si>
   <si>
     <t>MoneyYellow</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>浩劫洪流</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Function</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -506,7 +514,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -619,7 +627,7 @@
         <v>24</v>
       </c>
       <c r="D5" s="3">
-        <v>7005</v>
+        <v>1001</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>11</v>
@@ -643,7 +651,7 @@
         <v>20</v>
       </c>
       <c r="D6" s="3">
-        <v>7006</v>
+        <v>1002</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>25</v>
@@ -667,7 +675,7 @@
         <v>21</v>
       </c>
       <c r="D7" s="3">
-        <v>7007</v>
+        <v>1003</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>26</v>
@@ -691,7 +699,7 @@
         <v>22</v>
       </c>
       <c r="D8" s="3">
-        <v>7008</v>
+        <v>1004</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>27</v>
@@ -715,7 +723,7 @@
         <v>23</v>
       </c>
       <c r="D9" s="3">
-        <v>7009</v>
+        <v>1005</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>28</v>
@@ -732,13 +740,27 @@
     </row>
     <row r="10" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
+      <c r="B10" s="3">
+        <v>6006</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1006</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="3">
+        <v>10000</v>
+      </c>
+      <c r="G10" s="3">
+        <v>1</v>
+      </c>
+      <c r="H10" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A11" s="3"/>

--- a/DataBase/Datas/Dungeons.xlsx
+++ b/DataBase/Datas/Dungeons.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\Godot\AwesomeRPG\DataBase\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E06933C6-15B7-4680-B885-166945A09B7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE5A6B15-EAE9-4B29-B125-E2E158C1D4BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="39">
   <si>
     <t>##var</t>
   </si>
@@ -145,6 +145,38 @@
   </si>
   <si>
     <t>Function</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_path</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>图标路径</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GoldTreasury.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>City.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HeavenStairs.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Church.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Angel.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flood.png</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -511,10 +543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -523,12 +555,13 @@
     <col min="2" max="2" width="7.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.25" customWidth="1"/>
     <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="6" max="6" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -542,19 +575,22 @@
         <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -571,7 +607,7 @@
         <v>5</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>4</v>
@@ -579,8 +615,11 @@
       <c r="H2" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="I2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -591,8 +630,9 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -606,19 +646,22 @@
         <v>12</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="3"/>
       <c r="B5" s="3">
         <v>6001</v>
@@ -630,19 +673,22 @@
         <v>1001</v>
       </c>
       <c r="E5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="3">
+      <c r="G5" s="3">
         <v>100</v>
       </c>
-      <c r="G5" s="3">
+      <c r="H5" s="3">
         <v>200</v>
       </c>
-      <c r="H5" s="3">
+      <c r="I5" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="3"/>
       <c r="B6" s="3">
         <v>6002</v>
@@ -654,19 +700,22 @@
         <v>1002</v>
       </c>
       <c r="E6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="3">
+      <c r="G6" s="3">
         <v>1000</v>
       </c>
-      <c r="G6" s="3">
+      <c r="H6" s="3">
         <v>10</v>
       </c>
-      <c r="H6" s="3">
+      <c r="I6" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="3"/>
       <c r="B7" s="3">
         <v>6003</v>
@@ -678,19 +727,22 @@
         <v>1003</v>
       </c>
       <c r="E7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="3">
+      <c r="G7" s="3">
         <v>2000</v>
       </c>
-      <c r="G7" s="3">
+      <c r="H7" s="3">
         <v>10</v>
       </c>
-      <c r="H7" s="3">
+      <c r="I7" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="3"/>
       <c r="B8" s="3">
         <v>6004</v>
@@ -702,19 +754,22 @@
         <v>1004</v>
       </c>
       <c r="E8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>10</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
       <c r="B9" s="3">
         <v>6005</v>
@@ -726,19 +781,22 @@
         <v>1005</v>
       </c>
       <c r="E9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>5000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>10</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="3"/>
       <c r="B10" s="3">
         <v>6006</v>
@@ -750,19 +808,22 @@
         <v>1006</v>
       </c>
       <c r="E10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>10000</v>
-      </c>
-      <c r="G10" s="3">
-        <v>1</v>
       </c>
       <c r="H10" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="I10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -771,8 +832,9 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
-    </row>
-    <row r="12" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -781,6 +843,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/DataBase/Datas/Dungeons.xlsx
+++ b/DataBase/Datas/Dungeons.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\Godot\AwesomeRPG\DataBase\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE5A6B15-EAE9-4B29-B125-E2E158C1D4BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEA83DAC-F66E-4598-AD6E-DC0BE37B026B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
   <si>
     <t>##var</t>
   </si>
@@ -177,6 +177,18 @@
   </si>
   <si>
     <t>Flood.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>传奇宝库</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GoldEquipment.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GoldEquipment</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -546,7 +558,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -825,14 +837,30 @@
     </row>
     <row r="11" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
+      <c r="B11" s="3">
+        <v>6007</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1007</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H11" s="3">
+        <v>1</v>
+      </c>
+      <c r="I11" s="3">
+        <v>20</v>
+      </c>
     </row>
     <row r="12" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A12" s="3"/>
